--- a/Assets/StreamingAssets/levels/Level1.xlsx
+++ b/Assets/StreamingAssets/levels/Level1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LBstudio\Documents\GitHub\Project\Assets\StreamingAssets\levels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC84859-BC45-4BEE-8AB3-2DB167C8A771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166699F7-94B8-4305-998F-2F130C1B9FC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12984" yWindow="2568" windowWidth="16452" windowHeight="12192" activeTab="1" xr2:uid="{C2226A68-D7B0-4D43-ABB2-DEB1751B0BE9}"/>
+    <workbookView xWindow="12300" yWindow="2796" windowWidth="16452" windowHeight="12192" xr2:uid="{C2226A68-D7B0-4D43-ABB2-DEB1751B0BE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Prop" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Width</t>
   </si>
@@ -45,6 +45,12 @@
   </si>
   <si>
     <t>NextLevel</t>
+  </si>
+  <si>
+    <t>Background</t>
+  </si>
+  <si>
+    <t>BgTest.png</t>
   </si>
 </sst>
 </file>
@@ -403,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F36E9A83-1242-0D41-9838-6F50983CC2CF}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -432,6 +438,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -442,7 +456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40AEF038-7884-4C45-8363-3DD22CC55CD7}">
   <dimension ref="A5:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>

--- a/Assets/StreamingAssets/levels/Level1.xlsx
+++ b/Assets/StreamingAssets/levels/Level1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LBstudio\Documents\GitHub\Project\Assets\StreamingAssets\levels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166699F7-94B8-4305-998F-2F130C1B9FC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694600A0-31B4-4C2E-BA41-32622CE5E5EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12300" yWindow="2796" windowWidth="16452" windowHeight="12192" xr2:uid="{C2226A68-D7B0-4D43-ABB2-DEB1751B0BE9}"/>
+    <workbookView xWindow="8904" yWindow="3468" windowWidth="16452" windowHeight="12132" xr2:uid="{C2226A68-D7B0-4D43-ABB2-DEB1751B0BE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Prop" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Width</t>
   </si>
@@ -50,7 +50,12 @@
     <t>Background</t>
   </si>
   <si>
-    <t>BgTest.png</t>
+    <t>Level2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bg8.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -412,7 +417,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -422,7 +427,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -430,12 +435,15 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -443,7 +451,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -454,30 +462,168 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40AEF038-7884-4C45-8363-3DD22CC55CD7}">
-  <dimension ref="A5:J7"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.6328125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I1">
+        <v>15</v>
+      </c>
+      <c r="J1">
+        <v>15</v>
+      </c>
+      <c r="K1">
+        <v>15</v>
+      </c>
+      <c r="L1">
+        <v>15</v>
+      </c>
+      <c r="M1">
+        <v>15</v>
+      </c>
+      <c r="N1">
+        <v>15</v>
+      </c>
+      <c r="O1">
+        <v>15</v>
+      </c>
+      <c r="P1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="P2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="P3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="P4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>8</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="P5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
       <c r="J6">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D7">
-        <v>13</v>
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="P6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M8">
+        <v>5</v>
+      </c>
+      <c r="P8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/StreamingAssets/levels/Level1.xlsx
+++ b/Assets/StreamingAssets/levels/Level1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LBstudio\Documents\GitHub\Project\Assets\StreamingAssets\levels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694600A0-31B4-4C2E-BA41-32622CE5E5EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3BBA290-E157-4D78-80B4-75C2662BB51B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8904" yWindow="3468" windowWidth="16452" windowHeight="12132" xr2:uid="{C2226A68-D7B0-4D43-ABB2-DEB1751B0BE9}"/>
+    <workbookView xWindow="8664" yWindow="3552" windowWidth="16452" windowHeight="12132" activeTab="1" xr2:uid="{C2226A68-D7B0-4D43-ABB2-DEB1751B0BE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Prop" sheetId="1" r:id="rId1"/>
@@ -416,8 +416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F36E9A83-1242-0D41-9838-6F50983CC2CF}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -464,8 +464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40AEF038-7884-4C45-8363-3DD22CC55CD7}">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.6328125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -515,9 +515,6 @@
       <c r="L2">
         <v>2</v>
       </c>
-      <c r="P2">
-        <v>2</v>
-      </c>
     </row>
     <row r="3" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3">
@@ -526,9 +523,6 @@
       <c r="J3">
         <v>2</v>
       </c>
-      <c r="P3">
-        <v>2</v>
-      </c>
     </row>
     <row r="4" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4">
@@ -555,7 +549,10 @@
       <c r="L4">
         <v>2</v>
       </c>
-      <c r="P4">
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4">
         <v>2</v>
       </c>
     </row>
@@ -575,7 +572,7 @@
       <c r="J5">
         <v>2</v>
       </c>
-      <c r="P5">
+      <c r="N5">
         <v>2</v>
       </c>
     </row>
@@ -601,21 +598,13 @@
       <c r="L6">
         <v>2</v>
       </c>
-      <c r="P6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="P7">
+      <c r="N6">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M8">
         <v>5</v>
-      </c>
-      <c r="P8">
-        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">

--- a/Assets/StreamingAssets/levels/Level1.xlsx
+++ b/Assets/StreamingAssets/levels/Level1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LBstudio\Documents\GitHub\Project\Assets\StreamingAssets\levels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3BBA290-E157-4D78-80B4-75C2662BB51B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A78097F-A496-4DF5-AC3D-68E76AD126E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8664" yWindow="3552" windowWidth="16452" windowHeight="12132" activeTab="1" xr2:uid="{C2226A68-D7B0-4D43-ABB2-DEB1751B0BE9}"/>
+    <workbookView xWindow="7728" yWindow="2652" windowWidth="16452" windowHeight="12132" xr2:uid="{C2226A68-D7B0-4D43-ABB2-DEB1751B0BE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Prop" sheetId="1" r:id="rId1"/>
@@ -416,8 +416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F36E9A83-1242-0D41-9838-6F50983CC2CF}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -464,7 +464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40AEF038-7884-4C45-8363-3DD22CC55CD7}">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
